--- a/data/hotels_by_city/Dallas/Dallas_shard_360.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_360.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Laura R</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Very nice, the staff were helpful and the bed was by far the most comfortable I every slept on. We had a suite so there was plenty of room for 2 adults and 3 kids. I will definitely stay here again when we visit. Plenty of restaurants on this road to choose from. Point Mallard Park near by. More</t>
   </si>
   <si>
+    <t>shirleyalice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r498086319-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>When our grandson became critically ill we came from Ohio to do whatever we could. When we explained our need, we were given immediate reservations, at a very good rate. Everyone on staff was so helpful and kind. We stayed three days, and were asked by several people about the child's condition, andhad offers to do whatever we needed. The hotel is still quite new and excellent. The cleanliness and comfort are just great. It has modern decor and a very good breakfast. We will be back for family visits at a less urgent time, and wouldn't think of staying any where else!More</t>
   </si>
   <si>
+    <t>prefabber01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r487140168-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>First and foremost I intend to go back to this Motel for my own personal use any chance I possibly get. I have stayed in Holiday Inn Express motels all over the North and the South East.  I'm really impressed with this one.  it is centrally located on Highway 67 or the Beltline is they call it. The rooms are exceptional and the breakfast is awesome, the staff is phenomenal. My overall experience is and will be a five.  I will take pictures at a later date when me and my spouse go back in June. More</t>
   </si>
   <si>
+    <t>familytraveler524</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r474324216-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -348,6 +360,9 @@
     <t>I stayed one night while in Decatur for work.  The hotel and the room were very nice and the lady at check-in was friendly.  Their computer system was having issues at check-in, so they must still have some bugs to work out, but the lady was able to get it working so I could check-in.  (She said to watch for points as she wasn't sure the computer registered everything properly.)  The fitness room was nice with more space than other fitness rooms I have seen at  various hotels.  1 small complaint - the shower shelves had soap on them.  Just need to make sure the cleaning staff cleans the showers properly.  1 note for those wanting to use the pool - The pool is rather small and would not be good for someone wanting to swim laps.  It also would not be large enough for a group of kids.More</t>
   </si>
   <si>
+    <t>CLShort</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r437651352-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -375,6 +390,9 @@
     <t>This is by far the best hotel in area. The hotel is beautiful and the staff was great. I loved the beds...so comfortable! If I am ever in town on business again it will definitely be where I stay again!More</t>
   </si>
   <si>
+    <t>Tammy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r433228773-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -396,6 +414,9 @@
     <t>This is a wonderful hotel. The property has an indoor pool a hot breakfast and clean comfortable rooms. The staff was extremely nice and welcoming. The location is convenient to many restaurants and retail outlets. I would recommend this hotel to everyone.More</t>
   </si>
   <si>
+    <t>RU4Real2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r581364789-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -423,6 +444,9 @@
     <t>Another business trip to Decatur AL that was enhanced by a great hotel. The staff was so warm and welcoming on arrival. The hotel has the new HIE updated design and the beds are wonderful. I got a great nights sleep in a quiet room. Although the hotel is not “downtown”, there are many eating options within a couple miles and I suggest Scruggs BBQ on Hwy 20 as a place to try. More</t>
   </si>
   <si>
+    <t>sandiegogirl2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r561592919-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -450,6 +474,9 @@
     <t>This is a brand new hotel, still had the new paint smell. If you are traveling on the interstate you have to drive to the other side of town to find it, as it's not right off the interstate. It's not too far and worth it for this new property. Friendly staff. Free breakfast, not many choices but enough unless you're a big breakfast eater. Coffee served 24/7. There is a good gas station right next door if you need to fill up before heading out the next day. Quite a few restaurants in the nearby area.More</t>
   </si>
   <si>
+    <t>cookMi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r578670483-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -474,6 +501,9 @@
     <t>hands down better then my first mistake in this town at the best western who charged me more hands down holiday is way nicer and cleaner my only issue is the front desk first shift and second shift came across to me rudeMore</t>
   </si>
   <si>
+    <t>jfadds</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r565179281-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -499,6 +529,9 @@
   </si>
   <si>
     <t>Tepid welcome was only shortcoming-property itself is new and rooms are nicely designed. Bed was very comfortable as were the pillows.Breakfast had a nice selection of choices.Would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>madsci2000</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r560646667-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
@@ -1027,43 +1060,47 @@
       <c r="A2" t="n">
         <v>54054</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>8052</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1075,56 +1112,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54054</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>155367</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1136,56 +1177,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54054</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>155368</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1197,56 +1242,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54054</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>155369</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1262,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -1281,37 +1330,37 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1329,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -1348,37 +1397,37 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1390,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -1409,37 +1458,37 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1457,56 +1506,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54054</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>155370</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1518,56 +1571,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54054</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>25797</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1579,56 +1636,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54054</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>47539</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1640,56 +1701,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54054</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>155371</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1707,56 +1772,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54054</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>155372</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1772,56 +1841,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54054</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>155373</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1833,56 +1906,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54054</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>155374</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1900,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_360.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_360.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,339 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Laura R</t>
-  </si>
-  <si>
-    <t>06/12/2018</t>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r603651286-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>30477</t>
+  </si>
+  <si>
+    <t>8891710</t>
+  </si>
+  <si>
+    <t>603651286</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Nice new hotel!</t>
+  </si>
+  <si>
+    <t>Was a pleasure staying at this new property with the modern HIE design in room.  Lots of restaurants and businesses within a short drive. Standard HIE breakfast.  I will stay here my next time passing through.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Was a pleasure staying at this new property with the modern HIE design in room.  Lots of restaurants and businesses within a short drive. Standard HIE breakfast.  I will stay here my next time passing through.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r596531725-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>596531725</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Nice,new and clean</t>
+  </si>
+  <si>
+    <t>We only stayed for one night, but our double queen room was spacious and comfortable.  Our room on the third floor was very quiet.  The room was well laid out and included a refrigerator.  There was a nook in the room that would make a great dressing area had there been a door or some sort of divider.  I would choose this Hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded July 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2018</t>
+  </si>
+  <si>
+    <t>We only stayed for one night, but our double queen room was spacious and comfortable.  Our room on the third floor was very quiet.  The room was well laid out and included a refrigerator.  There was a nook in the room that would make a great dressing area had there been a door or some sort of divider.  I would choose this Hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r581364789-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>581364789</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My choice in Decatur </t>
+  </si>
+  <si>
+    <t>Another business trip to Decatur AL that was enhanced by a great hotel. The staff was so warm and welcoming on arrival. The hotel has the new HIE updated design and the beds are wonderful. I got a great nights sleep in a quiet room. Although the hotel is not “downtown”, there are many eating options within a couple miles and I suggest Scruggs BBQ on Hwy 20 as a place to try. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Another business trip to Decatur AL that was enhanced by a great hotel. The staff was so warm and welcoming on arrival. The hotel has the new HIE updated design and the beds are wonderful. I got a great nights sleep in a quiet room. Although the hotel is not “downtown”, there are many eating options within a couple miles and I suggest Scruggs BBQ on Hwy 20 as a place to try. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r578670483-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>578670483</t>
+  </si>
+  <si>
+    <t>05/07/2018</t>
+  </si>
+  <si>
+    <t>love it but</t>
+  </si>
+  <si>
+    <t>hands down better then my first mistake in this town at the best western who charged me more hands down holiday is way nicer and cleaner my only issue is the front desk first shift and second shift came across to me rudeMoreShow less</t>
+  </si>
+  <si>
+    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>hands down better then my first mistake in this town at the best western who charged me more hands down holiday is way nicer and cleaner my only issue is the front desk first shift and second shift came across to me rudeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r565179281-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>565179281</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Nice new property for Decatur</t>
+  </si>
+  <si>
+    <t>Tepid welcome was only shortcoming-property itself is new and rooms are nicely designed. Bed was very comfortable as were the pillows.Breakfast had a nice selection of choices.Would definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Tepid welcome was only shortcoming-property itself is new and rooms are nicely designed. Bed was very comfortable as were the pillows.Breakfast had a nice selection of choices.Would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r561592919-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>561592919</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel, still had the new paint smell. If you are traveling on the interstate you have to drive to the other side of town to find it, as it's not right off the interstate. It's not too far and worth it for this new property. Friendly staff. Free breakfast, not many choices but enough unless you're a big breakfast eater. Coffee served 24/7. There is a good gas station right next door if you need to fill up before heading out the next day. Quite a few restaurants in the nearby area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel, still had the new paint smell. If you are traveling on the interstate you have to drive to the other side of town to find it, as it's not right off the interstate. It's not too far and worth it for this new property. Friendly staff. Free breakfast, not many choices but enough unless you're a big breakfast eater. Coffee served 24/7. There is a good gas station right next door if you need to fill up before heading out the next day. Quite a few restaurants in the nearby area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r560646667-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>560646667</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>friendly staff, clean room, everything was as expected. The breakfast was better than expected. The biscuits were really good. I was there for two weeks and used the guest laundry. Everything worked perfectly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>friendly staff, clean room, everything was as expected. The breakfast was better than expected. The biscuits were really good. I was there for two weeks and used the guest laundry. Everything worked perfectly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r559771292-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>559771292</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feeling good </t>
+  </si>
+  <si>
+    <t>Stay one night here. Motel is clean and decor is as up to date as anywhere. Staff at front desk friendly and professional. They helped us find a good restaurant. Our room was spacious and clean. A good mattress with great pillows made a good stay. Everything you could as for at a reasonable priceMoreShow less</t>
+  </si>
+  <si>
+    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Stay one night here. Motel is clean and decor is as up to date as anywhere. Staff at front desk friendly and professional. They helped us find a good restaurant. Our room was spacious and clean. A good mattress with great pillows made a good stay. Everything you could as for at a reasonable priceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r553659075-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>553659075</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>Just right !</t>
+  </si>
+  <si>
+    <t>Great stay , great price .... nice location ! Friendly , helpful staff . Nice clean room with good shower . Looks like a newer property . Shopping and cool bird sanctuary/preserve nearby. Don’t miss Big Bob Gibson’s BBQ! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Great stay , great price .... nice location ! Friendly , helpful staff . Nice clean room with good shower . Looks like a newer property . Shopping and cool bird sanctuary/preserve nearby. Don’t miss Big Bob Gibson’s BBQ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r547948446-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>547948446</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Nice Room although Average</t>
+  </si>
+  <si>
+    <t>Have stayed at this hotel a couple times lately.  The rooms have been nice...I like the renovated style. There are safes in the rooms but they are not anchored down so not too effective as a deterrent. The food area is spread out architecturally unlike most other Holiday Inn Express's with lots of wasted space. The breakfast attendants are not too attentive to the food area. Overall, just average.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Have stayed at this hotel a couple times lately.  The rooms have been nice...I like the renovated style. There are safes in the rooms but they are not anchored down so not too effective as a deterrent. The food area is spread out architecturally unlike most other Holiday Inn Express's with lots of wasted space. The breakfast attendants are not too attentive to the food area. Overall, just average.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r519980860-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>519980860</t>
+  </si>
+  <si>
+    <t>08/31/2017</t>
+  </si>
+  <si>
+    <t>Great location for shopping.</t>
+  </si>
+  <si>
+    <t>I was here and this Hotel was just built and it looks great.Breakfast buffet for you travelers. And the decor is great the rooms were nice with 'ECO' clean remote controls.Nice pool and easy to get too. I spoke with manager'Russ Kennamore' whom stated he wants the best for the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>I was here and this Hotel was just built and it looks great.Breakfast buffet for you travelers. And the decor is great the rooms were nice with 'ECO' clean remote controls.Nice pool and easy to get too. I spoke with manager'Russ Kennamore' whom stated he wants the best for the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r517175564-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
+  </si>
+  <si>
+    <t>517175564</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Convenient location, nice new rooms. Very comfortable and affordable.</t>
+  </si>
+  <si>
+    <t>I stayed here for a few nights while visiting Decatur and the rooms were VERY clean. Beds were comfortable, and the location is just outside town off a main road so very convenient. The indoor pool was nice, very clean and the water was warm and comfortable. Since it's a Holiday Inn Express there was free breakfast, the kitchen/eating area were very clean. I would stay here again and would recommend it to anyone looking for a clean, safe, affordable place to stay in Decatur.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for a few nights while visiting Decatur and the rooms were VERY clean. Beds were comfortable, and the location is just outside town off a main road so very convenient. The indoor pool was nice, very clean and the water was warm and comfortable. Since it's a Holiday Inn Express there was free breakfast, the kitchen/eating area were very clean. I would stay here again and would recommend it to anyone looking for a clean, safe, affordable place to stay in Decatur.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r504300379-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
-    <t>30477</t>
-  </si>
-  <si>
-    <t>8891710</t>
-  </si>
-  <si>
     <t>504300379</t>
   </si>
   <si>
@@ -174,12 +492,6 @@
     <t>Very nice, the staff were helpful and the bed was by far the most comfortable I every slept on. We had a suite so there was plenty of room for 2 adults and 3 kids. I will definitely stay here again when we visit. Plenty of restaurants on this road to choose from. Point Mallard Park near by. MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Management response:Responded July 23, 2017</t>
   </si>
   <si>
@@ -189,9 +501,6 @@
     <t>Very nice, the staff were helpful and the bed was by far the most comfortable I every slept on. We had a suite so there was plenty of room for 2 adults and 3 kids. I will definitely stay here again when we visit. Plenty of restaurants on this road to choose from. Point Mallard Park near by. More</t>
   </si>
   <si>
-    <t>shirleyalice</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r498086319-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -219,9 +528,6 @@
     <t>When our grandson became critically ill we came from Ohio to do whatever we could. When we explained our need, we were given immediate reservations, at a very good rate. Everyone on staff was so helpful and kind. We stayed three days, and were asked by several people about the child's condition, andhad offers to do whatever we needed. The hotel is still quite new and excellent. The cleanliness and comfort are just great. It has modern decor and a very good breakfast. We will be back for family visits at a less urgent time, and wouldn't think of staying any where else!More</t>
   </si>
   <si>
-    <t>prefabber01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r487140168-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -249,9 +555,6 @@
     <t>First and foremost I intend to go back to this Motel for my own personal use any chance I possibly get. I have stayed in Holiday Inn Express motels all over the North and the South East.  I'm really impressed with this one.  it is centrally located on Highway 67 or the Beltline is they call it. The rooms are exceptional and the breakfast is awesome, the staff is phenomenal. My overall experience is and will be a five.  I will take pictures at a later date when me and my spouse go back in June. More</t>
   </si>
   <si>
-    <t>familytraveler524</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r474324216-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -294,9 +597,6 @@
     <t>This is a new hotel with an opening of October 2016. The room was beautiful, bed extremely comfortable. The bathroom is well light, large mirror and plenty of towels. The room was very quiet. Because this is a new hotel all the furnishing are clean and comfortable. We arrived early and our room was ready. I would highly recommend this hotel!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Management response:Responded March 24, 2017</t>
   </si>
   <si>
@@ -321,9 +621,6 @@
     <t>I travel a lot and I've stayed in Holiday Inn's all over the US and Mexico and this is by far the best hotel I have stayed in. Very nice staff and best of them all is the front desk manager Ashley. She did everything in her power to make my stay the best I've ever had. Clean rooms and comfortable beds. This will be the only hotel I stay in on my trips to this area. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Management response:Responded March 14, 2017</t>
   </si>
   <si>
@@ -360,9 +657,6 @@
     <t>I stayed one night while in Decatur for work.  The hotel and the room were very nice and the lady at check-in was friendly.  Their computer system was having issues at check-in, so they must still have some bugs to work out, but the lady was able to get it working so I could check-in.  (She said to watch for points as she wasn't sure the computer registered everything properly.)  The fitness room was nice with more space than other fitness rooms I have seen at  various hotels.  1 small complaint - the shower shelves had soap on them.  Just need to make sure the cleaning staff cleans the showers properly.  1 note for those wanting to use the pool - The pool is rather small and would not be good for someone wanting to swim laps.  It also would not be large enough for a group of kids.More</t>
   </si>
   <si>
-    <t>CLShort</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r437651352-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -390,9 +684,6 @@
     <t>This is by far the best hotel in area. The hotel is beautiful and the staff was great. I loved the beds...so comfortable! If I am ever in town on business again it will definitely be where I stay again!More</t>
   </si>
   <si>
-    <t>Tammy D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r433228773-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
   </si>
   <si>
@@ -412,150 +703,6 @@
   </si>
   <si>
     <t>This is a wonderful hotel. The property has an indoor pool a hot breakfast and clean comfortable rooms. The staff was extremely nice and welcoming. The location is convenient to many restaurants and retail outlets. I would recommend this hotel to everyone.More</t>
-  </si>
-  <si>
-    <t>RU4Real2</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r581364789-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
-  </si>
-  <si>
-    <t>581364789</t>
-  </si>
-  <si>
-    <t>05/20/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My choice in Decatur </t>
-  </si>
-  <si>
-    <t>Another business trip to Decatur AL that was enhanced by a great hotel. The staff was so warm and welcoming on arrival. The hotel has the new HIE updated design and the beds are wonderful. I got a great nights sleep in a quiet room. Although the hotel is not “downtown”, there are many eating options within a couple miles and I suggest Scruggs BBQ on Hwy 20 as a place to try. MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Another business trip to Decatur AL that was enhanced by a great hotel. The staff was so warm and welcoming on arrival. The hotel has the new HIE updated design and the beds are wonderful. I got a great nights sleep in a quiet room. Although the hotel is not “downtown”, there are many eating options within a couple miles and I suggest Scruggs BBQ on Hwy 20 as a place to try. More</t>
-  </si>
-  <si>
-    <t>sandiegogirl2</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r561592919-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
-  </si>
-  <si>
-    <t>561592919</t>
-  </si>
-  <si>
-    <t>02/19/2018</t>
-  </si>
-  <si>
-    <t>New Hotel</t>
-  </si>
-  <si>
-    <t>This is a brand new hotel, still had the new paint smell. If you are traveling on the interstate you have to drive to the other side of town to find it, as it's not right off the interstate. It's not too far and worth it for this new property. Friendly staff. Free breakfast, not many choices but enough unless you're a big breakfast eater. Coffee served 24/7. There is a good gas station right next door if you need to fill up before heading out the next day. Quite a few restaurants in the nearby area.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded February 21, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 21, 2018</t>
-  </si>
-  <si>
-    <t>This is a brand new hotel, still had the new paint smell. If you are traveling on the interstate you have to drive to the other side of town to find it, as it's not right off the interstate. It's not too far and worth it for this new property. Friendly staff. Free breakfast, not many choices but enough unless you're a big breakfast eater. Coffee served 24/7. There is a good gas station right next door if you need to fill up before heading out the next day. Quite a few restaurants in the nearby area.More</t>
-  </si>
-  <si>
-    <t>cookMi</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r578670483-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
-  </si>
-  <si>
-    <t>578670483</t>
-  </si>
-  <si>
-    <t>05/07/2018</t>
-  </si>
-  <si>
-    <t>love it but</t>
-  </si>
-  <si>
-    <t>hands down better then my first mistake in this town at the best western who charged me more hands down holiday is way nicer and cleaner my only issue is the front desk first shift and second shift came across to me rudeMoreShow less</t>
-  </si>
-  <si>
-    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>hands down better then my first mistake in this town at the best western who charged me more hands down holiday is way nicer and cleaner my only issue is the front desk first shift and second shift came across to me rudeMore</t>
-  </si>
-  <si>
-    <t>jfadds</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r565179281-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
-  </si>
-  <si>
-    <t>565179281</t>
-  </si>
-  <si>
-    <t>03/07/2018</t>
-  </si>
-  <si>
-    <t>Nice new property for Decatur</t>
-  </si>
-  <si>
-    <t>Tepid welcome was only shortcoming-property itself is new and rooms are nicely designed. Bed was very comfortable as were the pillows.Breakfast had a nice selection of choices.Would definitely stay here againMoreShow less</t>
-  </si>
-  <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded March 8, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 8, 2018</t>
-  </si>
-  <si>
-    <t>Tepid welcome was only shortcoming-property itself is new and rooms are nicely designed. Bed was very comfortable as were the pillows.Breakfast had a nice selection of choices.Would definitely stay here againMore</t>
-  </si>
-  <si>
-    <t>madsci2000</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g30477-d8891710-r560646667-Holiday_Inn_Express_Suites_Decatur-Decatur_Alabama.html</t>
-  </si>
-  <si>
-    <t>560646667</t>
-  </si>
-  <si>
-    <t>02/15/2018</t>
-  </si>
-  <si>
-    <t>Great place to stay</t>
-  </si>
-  <si>
-    <t>friendly staff, clean room, everything was as expected. The breakfast was better than expected. The biscuits were really good. I was there for two weeks and used the guest laundry. Everything worked perfectly.MoreShow less</t>
-  </si>
-  <si>
-    <t>Russ K, General Manager at Holiday Inn Express &amp; Suites Decatur, responded to this reviewResponded February 16, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 16, 2018</t>
-  </si>
-  <si>
-    <t>friendly staff, clean room, everything was as expected. The breakfast was better than expected. The biscuits were really good. I was there for two weeks and used the guest laundry. Everything worked perfectly.More</t>
   </si>
 </sst>
 </file>
@@ -1060,47 +1207,43 @@
       <c r="A2" t="n">
         <v>54054</v>
       </c>
-      <c r="B2" t="n">
-        <v>8052</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1112,60 +1255,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54054</v>
       </c>
-      <c r="B3" t="n">
-        <v>155367</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1177,60 +1316,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54054</v>
       </c>
-      <c r="B4" t="n">
-        <v>155368</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1242,67 +1377,63 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54054</v>
       </c>
-      <c r="B5" t="n">
-        <v>155369</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -1311,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1330,61 +1461,55 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>88</v>
-      </c>
-      <c r="J6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -1397,55 +1522,61 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
       <c r="O7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1458,46 +1589,46 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" t="s">
-        <v>109</v>
-      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
       </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1506,60 +1637,56 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54054</v>
       </c>
-      <c r="B9" t="n">
-        <v>155370</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1571,60 +1698,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54054</v>
       </c>
-      <c r="B10" t="n">
-        <v>25797</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1636,60 +1759,56 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54054</v>
       </c>
-      <c r="B11" t="n">
-        <v>47539</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1701,67 +1820,63 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54054</v>
       </c>
-      <c r="B12" t="n">
-        <v>155371</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
         <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
@@ -1772,129 +1887,123 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54054</v>
       </c>
-      <c r="B13" t="n">
-        <v>155372</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54054</v>
       </c>
-      <c r="B14" t="n">
-        <v>155373</v>
-      </c>
-      <c r="C14" t="s">
-        <v>161</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1906,84 +2015,517 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54054</v>
       </c>
-      <c r="B15" t="n">
-        <v>155374</v>
-      </c>
-      <c r="C15" t="s">
-        <v>171</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54054</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
         <v>177</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y16" t="s">
         <v>178</v>
       </c>
-      <c r="Y15" t="s">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54054</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
         <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54054</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54054</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54054</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54054</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54054</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>227</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>219</v>
+      </c>
+      <c r="X22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
